--- a/sectorStocks.xlsx
+++ b/sectorStocks.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>stocks</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>LCSW</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>sf</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1349,6 +1355,22 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sectorStocks.xlsx
+++ b/sectorStocks.xlsx
@@ -14,14 +14,13 @@
     <sheet name="financialServices" sheetId="5" r:id="rId5"/>
     <sheet name="foods-Beverages" sheetId="6" r:id="rId6"/>
     <sheet name="Construction and Building" sheetId="7" r:id="rId7"/>
-    <sheet name="test" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>stocks</t>
   </si>
@@ -116,9 +115,30 @@
     <t>ABUK</t>
   </si>
   <si>
+    <t>MFPC</t>
+  </si>
+  <si>
+    <t>MINC</t>
+  </si>
+  <si>
+    <t>EGAS</t>
+  </si>
+  <si>
+    <t>ASCM</t>
+  </si>
+  <si>
     <t>RAYA</t>
   </si>
   <si>
+    <t>OTMT</t>
+  </si>
+  <si>
+    <t>ETEL</t>
+  </si>
+  <si>
+    <t>GTHE</t>
+  </si>
+  <si>
     <t>HRHC</t>
   </si>
   <si>
@@ -240,12 +260,6 @@
   </si>
   <si>
     <t>LCSW</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>sf</t>
   </si>
 </sst>
 </file>
@@ -603,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,11 +708,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -706,7 +715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -837,11 +846,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -849,7 +853,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -904,6 +908,33 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -912,7 +943,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -928,12 +959,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +993,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -959,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -967,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -975,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -983,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -991,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -999,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1007,12 +1057,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1038,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1046,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1054,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1062,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1070,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1078,7 +1123,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1086,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1094,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1102,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1110,7 +1155,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1118,7 +1163,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1126,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1134,7 +1179,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1142,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1150,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1158,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1166,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1174,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1182,12 +1227,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1237,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1213,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1221,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1229,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1237,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1245,7 +1285,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1253,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1261,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1269,7 +1309,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1277,7 +1317,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1285,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1293,7 +1333,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1301,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1309,7 +1349,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1317,7 +1357,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1325,51 +1365,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>2</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
